--- a/NeoHookMaterials.xlsx
+++ b/NeoHookMaterials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\MatTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B2119-811F-4389-9642-FD7D83D0E5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E3880-3761-440A-A344-94CE781A2489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="2130" windowWidth="21600" windowHeight="11295" xr2:uid="{20FFB52B-0552-483D-8A01-A88C3F6B7017}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20FFB52B-0552-483D-8A01-A88C3F6B7017}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Rivlin, R.S. (1948), Phil. Trans. R. Soc. A 241, 379-397</t>
   </si>
   <si>
-    <t>Silicone Rubber</t>
-  </si>
-  <si>
     <t>Holzapfel G.A. (2000), Springer: Biomechanics of Soft Tissue</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Ecofle 00-30</t>
+  </si>
+  <si>
+    <t>Liquid Silicone Rubber</t>
   </si>
 </sst>
 </file>
@@ -495,11 +495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3708F974-2A16-4175-84CC-479CB2DBFAD7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -531,7 +534,7 @@
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>0.8</v>
@@ -540,12 +543,12 @@
         <v>2E-3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>0.25</v>
@@ -554,12 +557,12 @@
         <v>0.01</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>1.1000000000000001</v>
@@ -568,12 +571,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>0.9</v>
@@ -582,12 +585,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>0.12</v>
@@ -596,12 +599,12 @@
         <v>0.05</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>1.5</v>
@@ -610,12 +613,12 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>0.95</v>
@@ -624,12 +627,12 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>0.65</v>
@@ -638,12 +641,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>0.03</v>
@@ -652,7 +655,7 @@
         <v>0.08</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
